--- a/biology/Mycologie/Glomus_(champignon)/Glomus_(champignon).xlsx
+++ b/biology/Mycologie/Glomus_(champignon)/Glomus_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glomus est un genre de champignons mycorhiziens de la famille des Glomeraceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (4 novembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 novembre 2017) :
 Glomus tenue (Greenall) I.R. Hall
-Selon Catalogue of Life                                   (4 novembre 2017)[3] :
+Selon Catalogue of Life                                   (4 novembre 2017) :
 Glomus ambisporum G.S. Sm. &amp; N.C. Schenck, 1985
 Glomus arborense McGee, 1986
 Glomus arenarium Blaszk., Tadych &amp; Madej, 2001
@@ -578,7 +592,7 @@
 Glomus tetrastratosum Blaszk., Chwat &amp; Góralska, 2015
 Glomus trufemii B.T. Goto, G.A. Silva &amp; Oehl, 2012
 Glomus warcupii McGee, 1986
-Selon Index Fungorum                                      (4 novembre 2017)[4] :
+Selon Index Fungorum                                      (4 novembre 2017) :
 Glomus ambisporum G.S. Sm. &amp; N.C. Schenck 1985
 Glomus arborense McGee 1986
 Glomus arenarium Błaszk., Tadych &amp; Madej 2001
@@ -654,9 +668,9 @@
 Glomus trufemii B.T. Goto, G.A. Silva &amp; Oehl 2012
 Glomus warcupii McGee 1986
 Glomus zaozhuangianum F.Y. Wang &amp; R.J. Liu 2002
-Selon ITIS      (4 novembre 2017)[5] :
+Selon ITIS      (4 novembre 2017) :
 Glomus macrocarpus L. R. &amp; C. Tulasne
-Selon NCBI  (4 novembre 2017)[6] :
+Selon NCBI  (4 novembre 2017) :
 Glomus aggregatum
 Glomus albidum
 Glomus ambisporum
